--- a/data/pca/factorExposure/factorExposure_2009-11-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007543863570201241</v>
+        <v>0.0166737918277732</v>
       </c>
       <c r="C2">
-        <v>0.002833653473930806</v>
+        <v>0.0009555707795037737</v>
       </c>
       <c r="D2">
-        <v>-0.007998350250947663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0086766058054767</v>
+      </c>
+      <c r="E2">
+        <v>-0.001319473204132539</v>
+      </c>
+      <c r="F2">
+        <v>0.01165998121452914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09295838804130584</v>
+        <v>0.09398814870389552</v>
       </c>
       <c r="C4">
-        <v>0.05556001368302583</v>
+        <v>0.0150131936923396</v>
       </c>
       <c r="D4">
-        <v>-0.04807443791194767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08465430782019399</v>
+      </c>
+      <c r="E4">
+        <v>-0.02838526340948757</v>
+      </c>
+      <c r="F4">
+        <v>-0.03140511626655315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1215788576634799</v>
+        <v>0.1580589590928028</v>
       </c>
       <c r="C6">
-        <v>0.06904514531963797</v>
+        <v>0.02574202743978512</v>
       </c>
       <c r="D6">
-        <v>0.03959395564911879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02150392060236527</v>
+      </c>
+      <c r="E6">
+        <v>-0.01180658903351639</v>
+      </c>
+      <c r="F6">
+        <v>-0.04502465223076678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05738461669634669</v>
+        <v>0.06340891926020634</v>
       </c>
       <c r="C7">
-        <v>0.04815701308284085</v>
+        <v>-0.001479460505355052</v>
       </c>
       <c r="D7">
-        <v>-0.0254070556011432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0521046406136156</v>
+      </c>
+      <c r="E7">
+        <v>-0.009032473764500998</v>
+      </c>
+      <c r="F7">
+        <v>-0.0476422002844855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04366817094958713</v>
+        <v>0.05716102059098434</v>
       </c>
       <c r="C8">
-        <v>0.05065042574385596</v>
+        <v>-0.0134456125830644</v>
       </c>
       <c r="D8">
-        <v>0.006168814459101921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03291997371296949</v>
+      </c>
+      <c r="E8">
+        <v>-0.0175453785458406</v>
+      </c>
+      <c r="F8">
+        <v>0.0278855841479972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07970273905956837</v>
+        <v>0.07140065179199735</v>
       </c>
       <c r="C9">
-        <v>0.04777054679795196</v>
+        <v>0.01072325533289039</v>
       </c>
       <c r="D9">
-        <v>-0.04441109426217516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08626790285538181</v>
+      </c>
+      <c r="E9">
+        <v>-0.02246125367010983</v>
+      </c>
+      <c r="F9">
+        <v>-0.04720370784414859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0391153364775657</v>
+        <v>0.09405910410637777</v>
       </c>
       <c r="C10">
-        <v>0.02008961101495866</v>
+        <v>0.0209430657342396</v>
       </c>
       <c r="D10">
-        <v>0.135647652114895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1691817744689186</v>
+      </c>
+      <c r="E10">
+        <v>0.03511931426907668</v>
+      </c>
+      <c r="F10">
+        <v>0.05376941474672103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08916878231626571</v>
+        <v>0.08785955782916804</v>
       </c>
       <c r="C11">
-        <v>0.05517872097274443</v>
+        <v>0.01062461792915444</v>
       </c>
       <c r="D11">
-        <v>-0.07574873283234455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.116891029842569</v>
+      </c>
+      <c r="E11">
+        <v>-0.04611716459508897</v>
+      </c>
+      <c r="F11">
+        <v>-0.02119574555275719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0934333225957875</v>
+        <v>0.09209275933555819</v>
       </c>
       <c r="C12">
-        <v>0.06103822113749002</v>
+        <v>0.007855817561095312</v>
       </c>
       <c r="D12">
-        <v>-0.07844432677246382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1318708111839214</v>
+      </c>
+      <c r="E12">
+        <v>-0.0472233141308013</v>
+      </c>
+      <c r="F12">
+        <v>-0.02772828985399218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03355361139297811</v>
+        <v>0.04205080827498412</v>
       </c>
       <c r="C13">
-        <v>0.02017035814909795</v>
+        <v>0.00291961084086497</v>
       </c>
       <c r="D13">
-        <v>-0.02975434746410211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05276964923541216</v>
+      </c>
+      <c r="E13">
+        <v>0.007847751551443115</v>
+      </c>
+      <c r="F13">
+        <v>-0.002088623798898789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02623397996887377</v>
+        <v>0.02260903543702115</v>
       </c>
       <c r="C14">
-        <v>0.003273913244038428</v>
+        <v>0.01353461587316302</v>
       </c>
       <c r="D14">
-        <v>-0.01642346682883944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03326145834095023</v>
+      </c>
+      <c r="E14">
+        <v>-0.01711203222105131</v>
+      </c>
+      <c r="F14">
+        <v>-0.01506375560422016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03311481847331586</v>
+        <v>0.03313782659691368</v>
       </c>
       <c r="C15">
-        <v>0.01786929484248809</v>
+        <v>0.004805556205284084</v>
       </c>
       <c r="D15">
-        <v>-0.0108621569726808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04492257937612562</v>
+      </c>
+      <c r="E15">
+        <v>-0.005583734951630438</v>
+      </c>
+      <c r="F15">
+        <v>-0.02313556796952541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07819041195292678</v>
+        <v>0.07472485424468986</v>
       </c>
       <c r="C16">
-        <v>0.05827661898342479</v>
+        <v>0.001491593777382706</v>
       </c>
       <c r="D16">
-        <v>-0.07084826253998984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1265401442330538</v>
+      </c>
+      <c r="E16">
+        <v>-0.06169987157272809</v>
+      </c>
+      <c r="F16">
+        <v>-0.02475801004079588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03328329356002924</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003530990907117827</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01827126169959949</v>
+      </c>
+      <c r="E18">
+        <v>0.00735366006955445</v>
+      </c>
+      <c r="F18">
+        <v>0.007145711087977637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05254327661517082</v>
+        <v>0.06132852200291825</v>
       </c>
       <c r="C20">
-        <v>0.03680340112676152</v>
+        <v>0.0002150742998645602</v>
       </c>
       <c r="D20">
-        <v>-0.02493479246849047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07709580896254979</v>
+      </c>
+      <c r="E20">
+        <v>-0.05514457802788385</v>
+      </c>
+      <c r="F20">
+        <v>-0.02425555255657991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03320370444207218</v>
+        <v>0.04059977753097797</v>
       </c>
       <c r="C21">
-        <v>0.01413492373932126</v>
+        <v>0.006634777944204096</v>
       </c>
       <c r="D21">
-        <v>-0.007709438325846739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03695985628216956</v>
+      </c>
+      <c r="E21">
+        <v>0.00543228739034776</v>
+      </c>
+      <c r="F21">
+        <v>0.02508848682255218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02211258550728764</v>
+        <v>0.04328417542055246</v>
       </c>
       <c r="C22">
-        <v>0.01670406718042218</v>
+        <v>0.0009034091533667647</v>
       </c>
       <c r="D22">
-        <v>0.02248129446513528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005540670034883431</v>
+      </c>
+      <c r="E22">
+        <v>-0.03296330744592259</v>
+      </c>
+      <c r="F22">
+        <v>0.04120464618672964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02208821261244899</v>
+        <v>0.04327576915040864</v>
       </c>
       <c r="C23">
-        <v>0.0166889057998568</v>
+        <v>0.0008998731713577083</v>
       </c>
       <c r="D23">
-        <v>0.02249769314136894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005555879908471251</v>
+      </c>
+      <c r="E23">
+        <v>-0.03317198990220049</v>
+      </c>
+      <c r="F23">
+        <v>0.04116870137197386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0833537100698368</v>
+        <v>0.08045948897880974</v>
       </c>
       <c r="C24">
-        <v>0.0618835989776035</v>
+        <v>0.001936215349214049</v>
       </c>
       <c r="D24">
-        <v>-0.07864819273571504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1216925150298748</v>
+      </c>
+      <c r="E24">
+        <v>-0.04920453168916563</v>
+      </c>
+      <c r="F24">
+        <v>-0.0260749477818602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08520095296422485</v>
+        <v>0.08488554805764391</v>
       </c>
       <c r="C25">
-        <v>0.05949871215096653</v>
+        <v>0.004388585933136896</v>
       </c>
       <c r="D25">
-        <v>-0.08157197700204767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1095185531902177</v>
+      </c>
+      <c r="E25">
+        <v>-0.032087853296058</v>
+      </c>
+      <c r="F25">
+        <v>-0.02637104411836453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05053515061505389</v>
+        <v>0.0577158085202585</v>
       </c>
       <c r="C26">
-        <v>0.01924627875572193</v>
+        <v>0.01422301918214098</v>
       </c>
       <c r="D26">
-        <v>-0.00520904126294216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04034168098868746</v>
+      </c>
+      <c r="E26">
+        <v>-0.02701492649497426</v>
+      </c>
+      <c r="F26">
+        <v>0.006696078840645074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.06922438447985686</v>
+        <v>0.1403074378812484</v>
       </c>
       <c r="C28">
-        <v>0.05198526064714439</v>
+        <v>0.02066319947624738</v>
       </c>
       <c r="D28">
-        <v>0.2501931467425023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2619876714999187</v>
+      </c>
+      <c r="E28">
+        <v>0.06782024472665704</v>
+      </c>
+      <c r="F28">
+        <v>-0.009327908434141226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02387704159479057</v>
+        <v>0.02728896247061923</v>
       </c>
       <c r="C29">
-        <v>0.006657134203525721</v>
+        <v>0.008314661319244592</v>
       </c>
       <c r="D29">
-        <v>-0.008046505416392239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0315327678667618</v>
+      </c>
+      <c r="E29">
+        <v>-0.01109170994914372</v>
+      </c>
+      <c r="F29">
+        <v>0.01124589933417082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08438870656469584</v>
+        <v>0.06076837697664561</v>
       </c>
       <c r="C30">
-        <v>0.06372379382236425</v>
+        <v>0.003431554110580283</v>
       </c>
       <c r="D30">
-        <v>-0.04178858158688156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08800906243686478</v>
+      </c>
+      <c r="E30">
+        <v>-0.01849759506199796</v>
+      </c>
+      <c r="F30">
+        <v>-0.08089014810497622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03575172736874179</v>
+        <v>0.0501934145847853</v>
       </c>
       <c r="C31">
-        <v>0.008200971776136202</v>
+        <v>0.01517489536847904</v>
       </c>
       <c r="D31">
-        <v>-0.01529956386894103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0247681826767243</v>
+      </c>
+      <c r="E31">
+        <v>-0.02748467914344312</v>
+      </c>
+      <c r="F31">
+        <v>0.002131115219436762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04001672453303409</v>
+        <v>0.0499771419916451</v>
       </c>
       <c r="C32">
-        <v>0.03257457435415305</v>
+        <v>-0.001783714447812407</v>
       </c>
       <c r="D32">
-        <v>-0.00628097720880915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03674979428477135</v>
+      </c>
+      <c r="E32">
+        <v>-0.03179205570354762</v>
+      </c>
+      <c r="F32">
+        <v>-0.003732776038810788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09150053399383962</v>
+        <v>0.09007885811383406</v>
       </c>
       <c r="C33">
-        <v>0.06321189933419712</v>
+        <v>0.0074595153316804</v>
       </c>
       <c r="D33">
-        <v>-0.05076390322947936</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09989082760852674</v>
+      </c>
+      <c r="E33">
+        <v>-0.04398789651224217</v>
+      </c>
+      <c r="F33">
+        <v>-0.03553517080697708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08171192110326758</v>
+        <v>0.06821309424706261</v>
       </c>
       <c r="C34">
-        <v>0.05164902297407139</v>
+        <v>0.01040137444902489</v>
       </c>
       <c r="D34">
-        <v>-0.07326286373545567</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1081338319501124</v>
+      </c>
+      <c r="E34">
+        <v>-0.03478395184653965</v>
+      </c>
+      <c r="F34">
+        <v>-0.03249449804104482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01786151505112381</v>
+        <v>0.02467230629390818</v>
       </c>
       <c r="C35">
-        <v>0.01231995773154163</v>
+        <v>0.002403903352787249</v>
       </c>
       <c r="D35">
-        <v>-0.003473724361776134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01140452448131969</v>
+      </c>
+      <c r="E35">
+        <v>-0.01158925451513239</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003975216753622241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01742407392237553</v>
+        <v>0.02785803835292296</v>
       </c>
       <c r="C36">
-        <v>0.001697552963558216</v>
+        <v>0.00699772678054452</v>
       </c>
       <c r="D36">
-        <v>-0.0277560225092717</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03922618543682508</v>
+      </c>
+      <c r="E36">
+        <v>-0.01612297233690277</v>
+      </c>
+      <c r="F36">
+        <v>-0.01479564461755799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002621484378122931</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001246591810508889</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0002091257434037538</v>
+      </c>
+      <c r="E37">
+        <v>0.0004691500445524067</v>
+      </c>
+      <c r="F37">
+        <v>-0.0007387143738845619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001739516143826293</v>
+        <v>0.001119386236169128</v>
       </c>
       <c r="C38">
-        <v>0.001356576236622505</v>
+        <v>0.0001887223815410363</v>
       </c>
       <c r="D38">
-        <v>0.001904420912968189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0005289450434194129</v>
+      </c>
+      <c r="E38">
+        <v>-8.183999385567963e-05</v>
+      </c>
+      <c r="F38">
+        <v>0.0008194829676424081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1208018348381743</v>
+        <v>0.1053375237657786</v>
       </c>
       <c r="C39">
-        <v>0.07573942228043826</v>
+        <v>0.01587752471070089</v>
       </c>
       <c r="D39">
-        <v>-0.1158383521115417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1537246025007862</v>
+      </c>
+      <c r="E39">
+        <v>-0.05823187761764936</v>
+      </c>
+      <c r="F39">
+        <v>-0.02982808721189715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02517540950728058</v>
+        <v>0.04262699945083551</v>
       </c>
       <c r="C40">
-        <v>0.009088480160808944</v>
+        <v>0.006932374513249096</v>
       </c>
       <c r="D40">
-        <v>0.0115354279026717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03159973517833507</v>
+      </c>
+      <c r="E40">
+        <v>-0.003259622021037277</v>
+      </c>
+      <c r="F40">
+        <v>0.01582907663277132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02062030445931861</v>
+        <v>0.02808330057986596</v>
       </c>
       <c r="C41">
-        <v>0.007074953125826153</v>
+        <v>0.006926104279893137</v>
       </c>
       <c r="D41">
-        <v>0.005904776573556847</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009861966946961002</v>
+      </c>
+      <c r="E41">
+        <v>-0.01244999807047953</v>
+      </c>
+      <c r="F41">
+        <v>0.006304543012096575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02279235074273707</v>
+        <v>0.04072150523248542</v>
       </c>
       <c r="C43">
-        <v>0.007211696967931317</v>
+        <v>0.006946300116428158</v>
       </c>
       <c r="D43">
-        <v>-0.006380416876020537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01912304934740323</v>
+      </c>
+      <c r="E43">
+        <v>-0.02448485913430717</v>
+      </c>
+      <c r="F43">
+        <v>0.01304726710926314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09935482277726231</v>
+        <v>0.08005674983522393</v>
       </c>
       <c r="C44">
-        <v>0.0529158044130662</v>
+        <v>0.01977779850363013</v>
       </c>
       <c r="D44">
-        <v>-0.04361473167344976</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09731949188263039</v>
+      </c>
+      <c r="E44">
+        <v>-0.06333488124855054</v>
+      </c>
+      <c r="F44">
+        <v>-0.1561759780392782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.006893555007287406</v>
+        <v>0.02315665385768357</v>
       </c>
       <c r="C46">
-        <v>-0.0005013959003416833</v>
+        <v>0.003552671670293374</v>
       </c>
       <c r="D46">
-        <v>0.00228121976529091</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01287730217336725</v>
+      </c>
+      <c r="E46">
+        <v>-0.02224298086579586</v>
+      </c>
+      <c r="F46">
+        <v>0.006525532827549931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03539641394870908</v>
+        <v>0.05184525327456622</v>
       </c>
       <c r="C47">
-        <v>0.02281014333346161</v>
+        <v>0.003264661410115531</v>
       </c>
       <c r="D47">
-        <v>0.02786852463653719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01372680909637814</v>
+      </c>
+      <c r="E47">
+        <v>-0.02396237773185843</v>
+      </c>
+      <c r="F47">
+        <v>0.03249673665770584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04217473488770428</v>
+        <v>0.0500791655188313</v>
       </c>
       <c r="C48">
-        <v>0.02938299464699998</v>
+        <v>0.002246260099283075</v>
       </c>
       <c r="D48">
-        <v>-0.03165326933881936</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05003950696143321</v>
+      </c>
+      <c r="E48">
+        <v>0.006274128913069534</v>
+      </c>
+      <c r="F48">
+        <v>-0.009841219257932765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1791277929911507</v>
+        <v>0.2010650078520656</v>
       </c>
       <c r="C49">
-        <v>0.1303292633691738</v>
+        <v>0.01897023373161877</v>
       </c>
       <c r="D49">
-        <v>0.03524081847730657</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006976067623421786</v>
+      </c>
+      <c r="E49">
+        <v>-0.03288080247282976</v>
+      </c>
+      <c r="F49">
+        <v>-0.03655305737519458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03906136784253778</v>
+        <v>0.05054631664622873</v>
       </c>
       <c r="C50">
-        <v>0.01637017325310186</v>
+        <v>0.01101614808875742</v>
       </c>
       <c r="D50">
-        <v>-0.007924696786757741</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02381226763626482</v>
+      </c>
+      <c r="E50">
+        <v>-0.02940821937295183</v>
+      </c>
+      <c r="F50">
+        <v>-0.009973657761904391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0007091507805168516</v>
+        <v>0.000397810565768469</v>
       </c>
       <c r="C51">
-        <v>0.0005184353934295034</v>
+        <v>0.0001096175238216228</v>
       </c>
       <c r="D51">
-        <v>0.0008678548026277046</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001512074917014721</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001730090415764239</v>
+      </c>
+      <c r="F51">
+        <v>-0.0009605334297941571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1349832134616048</v>
+        <v>0.146372937095207</v>
       </c>
       <c r="C52">
-        <v>0.09710775754129337</v>
+        <v>0.01622167604346112</v>
       </c>
       <c r="D52">
-        <v>-0.03005385829272553</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04329323321262032</v>
+      </c>
+      <c r="E52">
+        <v>-0.01948094307527954</v>
+      </c>
+      <c r="F52">
+        <v>-0.04209138835729753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1458354777524524</v>
+        <v>0.1717156140099747</v>
       </c>
       <c r="C53">
-        <v>0.1057624218918737</v>
+        <v>0.01926100062520882</v>
       </c>
       <c r="D53">
-        <v>0.001466367569841801</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005795312043952908</v>
+      </c>
+      <c r="E53">
+        <v>-0.03115373548644728</v>
+      </c>
+      <c r="F53">
+        <v>-0.07300518937707896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03193980917720823</v>
+        <v>0.02162430962747224</v>
       </c>
       <c r="C54">
-        <v>0.0119025384493789</v>
+        <v>0.01197036418074481</v>
       </c>
       <c r="D54">
-        <v>-0.006267620924385412</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03419865197046575</v>
+      </c>
+      <c r="E54">
+        <v>-0.01739710708086097</v>
+      </c>
+      <c r="F54">
+        <v>0.004879850126428804</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.09263561760046764</v>
+        <v>0.1140879291974308</v>
       </c>
       <c r="C55">
-        <v>0.06113085267567651</v>
+        <v>0.01677989552368053</v>
       </c>
       <c r="D55">
-        <v>0.006800573485229517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008387493180369672</v>
+      </c>
+      <c r="E55">
+        <v>-0.02701006519783123</v>
+      </c>
+      <c r="F55">
+        <v>-0.0477678056851704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1418986661360985</v>
+        <v>0.1766314268611131</v>
       </c>
       <c r="C56">
-        <v>0.1050404268374265</v>
+        <v>0.01692404799884408</v>
       </c>
       <c r="D56">
-        <v>0.0149764737489357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007170170833178775</v>
+      </c>
+      <c r="E56">
+        <v>-0.03466437372665521</v>
+      </c>
+      <c r="F56">
+        <v>-0.05163875341707121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0376140593615518</v>
+        <v>0.04574304766073822</v>
       </c>
       <c r="C58">
-        <v>0.02292774908421547</v>
+        <v>0.0001800847513474893</v>
       </c>
       <c r="D58">
-        <v>-0.03585219538260803</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06815771015268166</v>
+      </c>
+      <c r="E58">
+        <v>-0.02706396937716904</v>
+      </c>
+      <c r="F58">
+        <v>0.03643082331923138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.0987454980411536</v>
+        <v>0.1681008764176228</v>
       </c>
       <c r="C59">
-        <v>0.07397904421370176</v>
+        <v>0.02125920075199993</v>
       </c>
       <c r="D59">
-        <v>0.2270461114976873</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2191759267106706</v>
+      </c>
+      <c r="E59">
+        <v>0.04635604836255914</v>
+      </c>
+      <c r="F59">
+        <v>0.03613969225978116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.1973946084882568</v>
+        <v>0.2319166812266616</v>
       </c>
       <c r="C60">
-        <v>0.1726090371760318</v>
+        <v>-0.002659722106714734</v>
       </c>
       <c r="D60">
-        <v>-0.01903394788883935</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04207443982377637</v>
+      </c>
+      <c r="E60">
+        <v>-0.01204407870606228</v>
+      </c>
+      <c r="F60">
+        <v>0.005508346697037362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1009587203956286</v>
+        <v>0.08173259521454333</v>
       </c>
       <c r="C61">
-        <v>0.06694097689825182</v>
+        <v>0.01173815494215447</v>
       </c>
       <c r="D61">
-        <v>-0.06735987354765943</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1170911458433792</v>
+      </c>
+      <c r="E61">
+        <v>-0.03844703156197914</v>
+      </c>
+      <c r="F61">
+        <v>-0.01167846645649396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1416390269855975</v>
+        <v>0.1695402923762724</v>
       </c>
       <c r="C62">
-        <v>0.1007355576433771</v>
+        <v>0.02018992741398585</v>
       </c>
       <c r="D62">
-        <v>0.01159274465411974</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006153065132149119</v>
+      </c>
+      <c r="E62">
+        <v>-0.03380488185020538</v>
+      </c>
+      <c r="F62">
+        <v>-0.03388031864045424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04087401532949182</v>
+        <v>0.04586645831547475</v>
       </c>
       <c r="C63">
-        <v>0.02826070040100882</v>
+        <v>0.001863195618730396</v>
       </c>
       <c r="D63">
-        <v>-0.03507712344711644</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05873382941613493</v>
+      </c>
+      <c r="E63">
+        <v>-0.02169153517917986</v>
+      </c>
+      <c r="F63">
+        <v>-0.004131887896572005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.08508590597574434</v>
+        <v>0.1099789067073838</v>
       </c>
       <c r="C64">
-        <v>0.05272421732521471</v>
+        <v>0.01120466203271045</v>
       </c>
       <c r="D64">
-        <v>-0.003927750465207368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04337460695184558</v>
+      </c>
+      <c r="E64">
+        <v>-0.02394459851863893</v>
+      </c>
+      <c r="F64">
+        <v>-0.02625794432877579</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1153210188917681</v>
+        <v>0.1478891112809649</v>
       </c>
       <c r="C65">
-        <v>0.05782016143804099</v>
+        <v>0.03277145163691546</v>
       </c>
       <c r="D65">
-        <v>0.03073794923606274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04044434694789464</v>
+      </c>
+      <c r="E65">
+        <v>-0.005460428977287507</v>
+      </c>
+      <c r="F65">
+        <v>-0.03939237327004099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1474595302803786</v>
+        <v>0.1247003950806621</v>
       </c>
       <c r="C66">
-        <v>0.1018418218559686</v>
+        <v>0.01396579649655175</v>
       </c>
       <c r="D66">
-        <v>-0.1039444812084182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.141936535634467</v>
+      </c>
+      <c r="E66">
+        <v>-0.0649484438180188</v>
+      </c>
+      <c r="F66">
+        <v>-0.03284193647169249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05783176007300458</v>
+        <v>0.06009540717691227</v>
       </c>
       <c r="C67">
-        <v>0.04363098377241376</v>
+        <v>0.003339436983730986</v>
       </c>
       <c r="D67">
-        <v>-0.01794224297193663</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05516031606067063</v>
+      </c>
+      <c r="E67">
+        <v>-0.01724437230966616</v>
+      </c>
+      <c r="F67">
+        <v>0.03329876969582611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.06078353010422988</v>
+        <v>0.1158571866660072</v>
       </c>
       <c r="C68">
-        <v>0.02985459036921971</v>
+        <v>0.03149916901004932</v>
       </c>
       <c r="D68">
-        <v>0.2333069269344092</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2603278511171039</v>
+      </c>
+      <c r="E68">
+        <v>0.08650201547909846</v>
+      </c>
+      <c r="F68">
+        <v>-0.005745541760027993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03132129973486336</v>
+        <v>0.04005779428938219</v>
       </c>
       <c r="C69">
-        <v>0.02476897404774308</v>
+        <v>0.001350065039658096</v>
       </c>
       <c r="D69">
-        <v>0.01162373147771737</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007015542399700912</v>
+      </c>
+      <c r="E69">
+        <v>-0.02220292085441701</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009705176234890274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.007973581508871676</v>
+        <v>0.06624091955654092</v>
       </c>
       <c r="C70">
-        <v>0.03163122720118974</v>
+        <v>-0.02771353337730177</v>
       </c>
       <c r="D70">
-        <v>0.04662371387436468</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02392623796254831</v>
+      </c>
+      <c r="E70">
+        <v>0.03832755260640069</v>
+      </c>
+      <c r="F70">
+        <v>0.1829123736012674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.07372573189085954</v>
+        <v>0.1357847121116504</v>
       </c>
       <c r="C71">
-        <v>0.03600013957579232</v>
+        <v>0.03586232240423914</v>
       </c>
       <c r="D71">
-        <v>0.2490785277088593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2732270545603418</v>
+      </c>
+      <c r="E71">
+        <v>0.09678650635606061</v>
+      </c>
+      <c r="F71">
+        <v>-0.01093983527426568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1170871762662202</v>
+        <v>0.1419527955168561</v>
       </c>
       <c r="C72">
-        <v>0.06774835027142445</v>
+        <v>0.02620358667498144</v>
       </c>
       <c r="D72">
-        <v>0.02588255195587088</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0007947892591969155</v>
+      </c>
+      <c r="E72">
+        <v>-0.03869847380598367</v>
+      </c>
+      <c r="F72">
+        <v>-0.03311548055260915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1654517833145676</v>
+        <v>0.2018561456540597</v>
       </c>
       <c r="C73">
-        <v>0.1267784905065772</v>
+        <v>0.01233340335213714</v>
       </c>
       <c r="D73">
-        <v>0.03319684722006998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01755528131331829</v>
+      </c>
+      <c r="E73">
+        <v>-0.06494661087737222</v>
+      </c>
+      <c r="F73">
+        <v>-0.03553558589519424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08805626346406399</v>
+        <v>0.09469837207330149</v>
       </c>
       <c r="C74">
-        <v>0.06164029057539033</v>
+        <v>0.01328664266628177</v>
       </c>
       <c r="D74">
-        <v>-0.0001590012482732328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01707108288208932</v>
+      </c>
+      <c r="E74">
+        <v>-0.04354968648497994</v>
+      </c>
+      <c r="F74">
+        <v>-0.05816863303151208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.121754906509407</v>
+        <v>0.1276077976028189</v>
       </c>
       <c r="C75">
-        <v>0.06952481695346312</v>
+        <v>0.02808395538346125</v>
       </c>
       <c r="D75">
-        <v>0.002714287845243608</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03028553113682694</v>
+      </c>
+      <c r="E75">
+        <v>-0.05752254449761966</v>
+      </c>
+      <c r="F75">
+        <v>-0.02039010262005347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004854317391301212</v>
+        <v>0.0003168113072472416</v>
       </c>
       <c r="C76">
-        <v>0.0002984511740221788</v>
+        <v>9.583916033387057e-05</v>
       </c>
       <c r="D76">
-        <v>0.0006267924795746921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0001622121087052974</v>
+      </c>
+      <c r="E76">
+        <v>-6.866449186503979e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0001477669603066207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07819858177928947</v>
+        <v>0.08729677446529296</v>
       </c>
       <c r="C77">
-        <v>0.04656612195581382</v>
+        <v>0.00809960343942284</v>
       </c>
       <c r="D77">
-        <v>-0.07206774532497627</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.113496554789583</v>
+      </c>
+      <c r="E77">
+        <v>-0.03845135958547292</v>
+      </c>
+      <c r="F77">
+        <v>-0.03093230125050499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1379828061874945</v>
+        <v>0.1011302462511868</v>
       </c>
       <c r="C78">
-        <v>0.05738062293381455</v>
+        <v>0.03974061341589769</v>
       </c>
       <c r="D78">
-        <v>-0.0171583164158086</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.115908646466005</v>
+      </c>
+      <c r="E78">
+        <v>-0.07456354758857717</v>
+      </c>
+      <c r="F78">
+        <v>-0.0455855179825345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1302392007036501</v>
+        <v>0.1641557154330436</v>
       </c>
       <c r="C79">
-        <v>0.0833824171547265</v>
+        <v>0.02267468711644356</v>
       </c>
       <c r="D79">
-        <v>0.01496632132279792</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01375652295869714</v>
+      </c>
+      <c r="E79">
+        <v>-0.04530033157965464</v>
+      </c>
+      <c r="F79">
+        <v>-0.01093844208381899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0683959532711539</v>
+        <v>0.08286631140440857</v>
       </c>
       <c r="C80">
-        <v>0.05554941910851659</v>
+        <v>-0.0009771158025236647</v>
       </c>
       <c r="D80">
-        <v>-0.02717222538950523</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05663298431172672</v>
+      </c>
+      <c r="E80">
+        <v>-0.03628374365532748</v>
+      </c>
+      <c r="F80">
+        <v>0.02180359092157072</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1156786436249362</v>
+        <v>0.1207916323963091</v>
       </c>
       <c r="C81">
-        <v>0.05957975557597414</v>
+        <v>0.03203184372368335</v>
       </c>
       <c r="D81">
-        <v>-0.005683203835111967</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01428427059339662</v>
+      </c>
+      <c r="E81">
+        <v>-0.05597746901808165</v>
+      </c>
+      <c r="F81">
+        <v>-0.01774615193177036</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1408397479806396</v>
+        <v>0.165440083041921</v>
       </c>
       <c r="C82">
-        <v>0.09355870334350143</v>
+        <v>0.02435892675371111</v>
       </c>
       <c r="D82">
-        <v>0.002151053307209319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00398824497742725</v>
+      </c>
+      <c r="E82">
+        <v>-0.02786588933044686</v>
+      </c>
+      <c r="F82">
+        <v>-0.08101322499545952</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06052324161835392</v>
+        <v>0.05970311848635575</v>
       </c>
       <c r="C83">
-        <v>0.04320801825864595</v>
+        <v>0.002839379985165931</v>
       </c>
       <c r="D83">
-        <v>-0.02137286524391995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05082442898920338</v>
+      </c>
+      <c r="E83">
+        <v>-0.004686463484199137</v>
+      </c>
+      <c r="F83">
+        <v>0.03013006262530689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06907379261478173</v>
+        <v>0.05878802373156407</v>
       </c>
       <c r="C84">
-        <v>0.03987443472401532</v>
+        <v>0.01125074466889478</v>
       </c>
       <c r="D84">
-        <v>-0.04075423360830999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06342772654521139</v>
+      </c>
+      <c r="E84">
+        <v>-0.00619365479218717</v>
+      </c>
+      <c r="F84">
+        <v>-0.004036149224939083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1206830283166679</v>
+        <v>0.1364456120498423</v>
       </c>
       <c r="C85">
-        <v>0.06902058003990216</v>
+        <v>0.02797436894081842</v>
       </c>
       <c r="D85">
-        <v>0.008604933695086666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.00942697155038528</v>
+      </c>
+      <c r="E85">
+        <v>-0.03698315219461658</v>
+      </c>
+      <c r="F85">
+        <v>-0.04634752670347517</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.06208829376452119</v>
+        <v>0.09518610667564803</v>
       </c>
       <c r="C86">
-        <v>0.05069801871908449</v>
+        <v>-0.005291705404040462</v>
       </c>
       <c r="D86">
-        <v>0.1004493104725472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03950527817828704</v>
+      </c>
+      <c r="E86">
+        <v>-0.2190631443552155</v>
+      </c>
+      <c r="F86">
+        <v>0.9080411212082373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1228389052210852</v>
+        <v>0.09654090591574556</v>
       </c>
       <c r="C87">
-        <v>0.07049316914633746</v>
+        <v>0.0200451960513115</v>
       </c>
       <c r="D87">
-        <v>-0.04572071736799969</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09434024381641024</v>
+      </c>
+      <c r="E87">
+        <v>0.05279249409613015</v>
+      </c>
+      <c r="F87">
+        <v>-0.04994489205813382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04694134230446392</v>
+        <v>0.06080469838284257</v>
       </c>
       <c r="C88">
-        <v>0.03201594087842615</v>
+        <v>0.002248004130191838</v>
       </c>
       <c r="D88">
-        <v>-0.01361523720887595</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04914331156274016</v>
+      </c>
+      <c r="E88">
+        <v>-0.023974955401292</v>
+      </c>
+      <c r="F88">
+        <v>-0.01337759214955067</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.06563829843479489</v>
+        <v>0.1327818689960332</v>
       </c>
       <c r="C89">
-        <v>0.05895411427394418</v>
+        <v>0.01297127545372223</v>
       </c>
       <c r="D89">
-        <v>0.2602727005169195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2487953766845938</v>
+      </c>
+      <c r="E89">
+        <v>0.09044944835625909</v>
+      </c>
+      <c r="F89">
+        <v>0.008459208172178342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.07441925488126119</v>
+        <v>0.1504725433929417</v>
       </c>
       <c r="C90">
-        <v>0.03957670609058911</v>
+        <v>0.03227998566716121</v>
       </c>
       <c r="D90">
-        <v>0.2458195977231671</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2700627506506841</v>
+      </c>
+      <c r="E90">
+        <v>0.1127078075361888</v>
+      </c>
+      <c r="F90">
+        <v>0.003628329106305128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.09759242995580789</v>
+        <v>0.1204114092787701</v>
       </c>
       <c r="C91">
-        <v>0.06453515745504013</v>
+        <v>0.01914275605055999</v>
       </c>
       <c r="D91">
-        <v>0.03105595014262031</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01409227907106723</v>
+      </c>
+      <c r="E91">
+        <v>-0.05593736190962919</v>
+      </c>
+      <c r="F91">
+        <v>0.00141928738408397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.06591296695997403</v>
+        <v>0.1477716630783899</v>
       </c>
       <c r="C92">
-        <v>0.05143987269667784</v>
+        <v>0.02367748875983704</v>
       </c>
       <c r="D92">
-        <v>0.257217413480801</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2927385563980552</v>
+      </c>
+      <c r="E92">
+        <v>0.1020525598252633</v>
+      </c>
+      <c r="F92">
+        <v>0.01242126904952659</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.08339652107966122</v>
+        <v>0.1517287713073801</v>
       </c>
       <c r="C93">
-        <v>0.05395105668745945</v>
+        <v>0.02794379803286995</v>
       </c>
       <c r="D93">
-        <v>0.2621824466075953</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2690614525589837</v>
+      </c>
+      <c r="E93">
+        <v>0.07816929123336881</v>
+      </c>
+      <c r="F93">
+        <v>-0.003237032784489057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1284214773737707</v>
+        <v>0.1299046714804335</v>
       </c>
       <c r="C94">
-        <v>0.08030049876856435</v>
+        <v>0.02479711041392452</v>
       </c>
       <c r="D94">
-        <v>-0.0123184527029034</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04241215325834932</v>
+      </c>
+      <c r="E94">
+        <v>-0.05687633460316082</v>
+      </c>
+      <c r="F94">
+        <v>-0.03715428087452561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.104156278441654</v>
+        <v>0.1269485795445028</v>
       </c>
       <c r="C95">
-        <v>0.07593178510671408</v>
+        <v>0.003484854106015164</v>
       </c>
       <c r="D95">
-        <v>-0.04625692448831405</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09284155966374485</v>
+      </c>
+      <c r="E95">
+        <v>-0.04667443455358394</v>
+      </c>
+      <c r="F95">
+        <v>0.008422107948962372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.5664409595359748</v>
+        <v>0.1070914349710876</v>
       </c>
       <c r="C96">
-        <v>0.8186134068781951</v>
+        <v>-0.9874347824905301</v>
       </c>
       <c r="D96">
-        <v>0.02042339620848031</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04769974987591474</v>
+      </c>
+      <c r="E96">
+        <v>-0.0549971174843103</v>
+      </c>
+      <c r="F96">
+        <v>-0.04187747016351295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1286834862215137</v>
+        <v>0.1928859252433889</v>
       </c>
       <c r="C97">
-        <v>0.1194867921596967</v>
+        <v>-0.007320332564803881</v>
       </c>
       <c r="D97">
-        <v>0.07819831924012913</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01700850259377706</v>
+      </c>
+      <c r="E97">
+        <v>-0.01897883081596905</v>
+      </c>
+      <c r="F97">
+        <v>0.08497822912207205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1509410315319172</v>
+        <v>0.2046476835971411</v>
       </c>
       <c r="C98">
-        <v>0.1213553383387214</v>
+        <v>0.006887473870953197</v>
       </c>
       <c r="D98">
-        <v>0.0003334390569285756</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01335502190508428</v>
+      </c>
+      <c r="E98">
+        <v>0.08262935744195349</v>
+      </c>
+      <c r="F98">
+        <v>0.09171583451935322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04172257903154322</v>
+        <v>0.05520569342039609</v>
       </c>
       <c r="C99">
-        <v>0.03920090062112728</v>
+        <v>-0.004658616301144262</v>
       </c>
       <c r="D99">
-        <v>-0.008368859745204816</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03940831797687958</v>
+      </c>
+      <c r="E99">
+        <v>-0.02256745720006555</v>
+      </c>
+      <c r="F99">
+        <v>-0.001414530216567493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.08336811961744099</v>
+        <v>0.1255734985558954</v>
       </c>
       <c r="C100">
-        <v>0.1057313222149781</v>
+        <v>-0.05417246342255529</v>
       </c>
       <c r="D100">
-        <v>-0.6026943320265866</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3438387702998075</v>
+      </c>
+      <c r="E100">
+        <v>0.8881780900337434</v>
+      </c>
+      <c r="F100">
+        <v>0.1484664911485407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0235742948875993</v>
+        <v>0.02724593657459379</v>
       </c>
       <c r="C101">
-        <v>0.006427749657353942</v>
+        <v>0.00833986561462203</v>
       </c>
       <c r="D101">
-        <v>-0.007191756061524315</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0311349276742259</v>
+      </c>
+      <c r="E101">
+        <v>-0.01046302930060911</v>
+      </c>
+      <c r="F101">
+        <v>0.01242695958878203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
